--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_68_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_68_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.422487189471404</v>
+        <v>2.538770820006408</v>
       </c>
       <c r="C2">
-        <v>0.9268259845890374</v>
+        <v>1.137975452964752</v>
       </c>
       <c r="D2">
-        <v>2.77741237924384</v>
+        <v>1.405567788060916</v>
       </c>
       <c r="E2">
-        <v>0.02962014010934239</v>
+        <v>0.05516661454244505</v>
       </c>
       <c r="F2">
-        <v>1.036991719795473</v>
+        <v>1.106635900241508</v>
       </c>
       <c r="G2">
-        <v>1581483.384267739</v>
+        <v>1041386.425609769</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.810807022368407</v>
+        <v>4.696071701063717</v>
       </c>
       <c r="C3">
-        <v>1.033025898372477</v>
+        <v>1.02448964458815</v>
       </c>
       <c r="D3">
-        <v>2.21999011579577</v>
+        <v>1.347716179640374</v>
       </c>
       <c r="E3">
-        <v>0.03590721802510753</v>
+        <v>0.05632717418751503</v>
       </c>
       <c r="F3">
-        <v>0.9253410711996195</v>
+        <v>1.042610973703767</v>
       </c>
       <c r="G3">
-        <v>1201883.420379551</v>
+        <v>1488511.706100273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.156840267823275</v>
+        <v>4.512799478629066</v>
       </c>
       <c r="C4">
-        <v>0.9813522620533658</v>
+        <v>1.058037563650381</v>
       </c>
       <c r="D4">
-        <v>1.545223720531196</v>
+        <v>2.032123407543791</v>
       </c>
       <c r="E4">
-        <v>0.03363947073210727</v>
+        <v>0.04268337208883106</v>
       </c>
       <c r="F4">
-        <v>1.466933920861634</v>
+        <v>0.9014284082949753</v>
       </c>
       <c r="G4">
-        <v>941945.886292622</v>
+        <v>1858147.65954009</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.127096438500332</v>
+        <v>2.879605360767926</v>
       </c>
       <c r="C5">
-        <v>1.061516510094288</v>
+        <v>1.09788062738455</v>
       </c>
       <c r="D5">
-        <v>1.649361843335525</v>
+        <v>1.985022466074695</v>
       </c>
       <c r="E5">
-        <v>0.02922863490730869</v>
+        <v>0.0375964643715194</v>
       </c>
       <c r="F5">
-        <v>1.453051242455229</v>
+        <v>1.069316856477628</v>
       </c>
       <c r="G5">
-        <v>1363148.110484839</v>
+        <v>1438339.612056743</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.26794917126897</v>
+        <v>2.711130206593947</v>
       </c>
       <c r="C6">
-        <v>1.097810970946532</v>
+        <v>1.145562990477926</v>
       </c>
       <c r="D6">
-        <v>1.907704694086517</v>
+        <v>2.414731755501213</v>
       </c>
       <c r="E6">
-        <v>0.05148556699931857</v>
+        <v>0.05480586530246129</v>
       </c>
       <c r="F6">
-        <v>1.433860300573344</v>
+        <v>1.189097169607245</v>
       </c>
       <c r="G6">
-        <v>1165497.85410707</v>
+        <v>1259493.421778619</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.996467647979893</v>
+        <v>3.421661368748531</v>
       </c>
       <c r="C7">
-        <v>0.9436702478817042</v>
+        <v>1.152762457295198</v>
       </c>
       <c r="D7">
-        <v>2.323872187245287</v>
+        <v>1.316592320824445</v>
       </c>
       <c r="E7">
-        <v>0.03888107099699901</v>
+        <v>0.02918308031752057</v>
       </c>
       <c r="F7">
-        <v>1.441457926531472</v>
+        <v>1.031609211322997</v>
       </c>
       <c r="G7">
-        <v>1170627.985273394</v>
+        <v>1644461.11884807</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490933202111111</v>
+        <v>1.877708793591606</v>
       </c>
       <c r="C8">
-        <v>1.073569329845406</v>
+        <v>1.178355731025293</v>
       </c>
       <c r="D8">
-        <v>2.572606906293443</v>
+        <v>1.494610170268453</v>
       </c>
       <c r="E8">
-        <v>0.03778223927283439</v>
+        <v>0.04122108346954008</v>
       </c>
       <c r="F8">
-        <v>1.273783263824763</v>
+        <v>1.063837095217325</v>
       </c>
       <c r="G8">
-        <v>1333971.301923819</v>
+        <v>1105555.902447493</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.647250539764365</v>
+        <v>1.830083930171448</v>
       </c>
       <c r="C9">
-        <v>1.127507261191671</v>
+        <v>1.093807202990043</v>
       </c>
       <c r="D9">
-        <v>2.594363585034034</v>
+        <v>1.873162868239779</v>
       </c>
       <c r="E9">
-        <v>0.04131780050851565</v>
+        <v>0.03370207556859153</v>
       </c>
       <c r="F9">
-        <v>0.8210618579358887</v>
+        <v>1.245787033553319</v>
       </c>
       <c r="G9">
-        <v>1618820.95653845</v>
+        <v>1109058.971448984</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.909772098839191</v>
+        <v>4.780013889361033</v>
       </c>
       <c r="C10">
-        <v>0.987271231185164</v>
+        <v>1.055724496463267</v>
       </c>
       <c r="D10">
-        <v>2.650603749654911</v>
+        <v>2.107170115681765</v>
       </c>
       <c r="E10">
-        <v>0.05649403821481863</v>
+        <v>0.03488784001202583</v>
       </c>
       <c r="F10">
-        <v>0.9714752077560629</v>
+        <v>1.007421980999323</v>
       </c>
       <c r="G10">
-        <v>1034701.224755907</v>
+        <v>1982409.029162316</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.896616723328192</v>
+        <v>1.791484000547301</v>
       </c>
       <c r="C11">
-        <v>1.117065923578693</v>
+        <v>1.185503616988172</v>
       </c>
       <c r="D11">
-        <v>1.918459919283808</v>
+        <v>2.674922304709443</v>
       </c>
       <c r="E11">
-        <v>0.0433133089695053</v>
+        <v>0.03645230818819503</v>
       </c>
       <c r="F11">
-        <v>0.8462350716828851</v>
+        <v>0.9730945135597386</v>
       </c>
       <c r="G11">
-        <v>1496150.425292775</v>
+        <v>1446850.196332251</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.233126520223058</v>
+        <v>3.208992544283343</v>
       </c>
       <c r="C12">
-        <v>1.163959098362732</v>
+        <v>1.004263417607722</v>
       </c>
       <c r="D12">
-        <v>2.403819873839864</v>
+        <v>1.935077717334825</v>
       </c>
       <c r="E12">
-        <v>0.03128017381045323</v>
+        <v>0.05077234534374533</v>
       </c>
       <c r="F12">
-        <v>1.204512911206292</v>
+        <v>1.120478907817038</v>
       </c>
       <c r="G12">
-        <v>2055556.562588905</v>
+        <v>1216579.961475467</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.302649983629758</v>
+        <v>3.848792688947077</v>
       </c>
       <c r="C13">
-        <v>1.006642259864011</v>
+        <v>0.9344320697828763</v>
       </c>
       <c r="D13">
-        <v>1.064460517910293</v>
+        <v>1.075863742982569</v>
       </c>
       <c r="E13">
-        <v>0.04918960808608731</v>
+        <v>0.04804664178860087</v>
       </c>
       <c r="F13">
-        <v>0.9198116885635768</v>
+        <v>0.8006090272628874</v>
       </c>
       <c r="G13">
-        <v>953830.1131933209</v>
+        <v>1306261.66839041</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.518801100361624</v>
+        <v>4.54682458201497</v>
       </c>
       <c r="C14">
-        <v>1.137372726558223</v>
+        <v>0.9698903829044085</v>
       </c>
       <c r="D14">
-        <v>1.091935526368078</v>
+        <v>2.526320694452508</v>
       </c>
       <c r="E14">
-        <v>0.03544573656932464</v>
+        <v>0.03449810105943977</v>
       </c>
       <c r="F14">
-        <v>1.372652216349892</v>
+        <v>0.9646705119552061</v>
       </c>
       <c r="G14">
-        <v>1378738.246837629</v>
+        <v>1863508.904124179</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.388956766223568</v>
+        <v>2.162259364589085</v>
       </c>
       <c r="C15">
-        <v>1.225606925652475</v>
+        <v>1.009559653880667</v>
       </c>
       <c r="D15">
-        <v>1.503659676868167</v>
+        <v>1.71372425163434</v>
       </c>
       <c r="E15">
-        <v>0.04478422709922869</v>
+        <v>0.03688387830648988</v>
       </c>
       <c r="F15">
-        <v>0.8405421600677832</v>
+        <v>0.976281995851169</v>
       </c>
       <c r="G15">
-        <v>1996047.005946991</v>
+        <v>1136569.716624716</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.855581546434226</v>
+        <v>2.302038781781841</v>
       </c>
       <c r="C16">
-        <v>1.084746407895677</v>
+        <v>1.018623039408593</v>
       </c>
       <c r="D16">
-        <v>1.252395916863449</v>
+        <v>2.98285067272138</v>
       </c>
       <c r="E16">
-        <v>0.03440662390833012</v>
+        <v>0.05561240382005408</v>
       </c>
       <c r="F16">
-        <v>0.9985332774719816</v>
+        <v>1.231771793750901</v>
       </c>
       <c r="G16">
-        <v>1603312.524972539</v>
+        <v>1094725.403376111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769926941952992</v>
+        <v>3.152608440507984</v>
       </c>
       <c r="C17">
-        <v>1.114634599658718</v>
+        <v>1.173726678991181</v>
       </c>
       <c r="D17">
-        <v>2.730507464230963</v>
+        <v>2.757646824885984</v>
       </c>
       <c r="E17">
-        <v>0.03860918483733489</v>
+        <v>0.04725284295753902</v>
       </c>
       <c r="F17">
-        <v>1.163946609280634</v>
+        <v>1.277674206293515</v>
       </c>
       <c r="G17">
-        <v>1818120.979493811</v>
+        <v>1547282.943719756</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.744905049439678</v>
+        <v>3.084519728429442</v>
       </c>
       <c r="C18">
-        <v>0.9765914502010152</v>
+        <v>1.248666869310258</v>
       </c>
       <c r="D18">
-        <v>1.784442894333251</v>
+        <v>2.612551705548697</v>
       </c>
       <c r="E18">
-        <v>0.04532254209126575</v>
+        <v>0.03240067172157823</v>
       </c>
       <c r="F18">
-        <v>1.067928426702793</v>
+        <v>1.412105086827064</v>
       </c>
       <c r="G18">
-        <v>1370212.40810617</v>
+        <v>1777526.441261646</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.793783014167547</v>
+        <v>2.060233416304213</v>
       </c>
       <c r="C19">
-        <v>1.243879354775628</v>
+        <v>1.068204769163823</v>
       </c>
       <c r="D19">
-        <v>1.94867370847537</v>
+        <v>2.139242741736193</v>
       </c>
       <c r="E19">
-        <v>0.03534626566097236</v>
+        <v>0.05676032204915544</v>
       </c>
       <c r="F19">
-        <v>1.064811375859984</v>
+        <v>0.9441013199258925</v>
       </c>
       <c r="G19">
-        <v>2266474.783845709</v>
+        <v>1071796.667149089</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.007894233996626</v>
+        <v>4.136930602050846</v>
       </c>
       <c r="C20">
-        <v>0.9703807514160556</v>
+        <v>1.072476823272797</v>
       </c>
       <c r="D20">
-        <v>2.267827438362745</v>
+        <v>2.905134037271467</v>
       </c>
       <c r="E20">
-        <v>0.0327144758529615</v>
+        <v>0.04911850892962585</v>
       </c>
       <c r="F20">
-        <v>0.9050807271054468</v>
+        <v>1.300721043766968</v>
       </c>
       <c r="G20">
-        <v>1466351.894860694</v>
+        <v>1673513.172595976</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.914290745528396</v>
+        <v>4.340003723884694</v>
       </c>
       <c r="C21">
-        <v>1.173785600204761</v>
+        <v>1.121676798678803</v>
       </c>
       <c r="D21">
-        <v>2.104703565116879</v>
+        <v>1.798103123592259</v>
       </c>
       <c r="E21">
-        <v>0.0414505884188254</v>
+        <v>0.03030594616243512</v>
       </c>
       <c r="F21">
-        <v>1.195422914809604</v>
+        <v>1.169936708111719</v>
       </c>
       <c r="G21">
-        <v>1756267.950341627</v>
+        <v>1904747.258742213</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.57218785306468</v>
+        <v>4.758070523801019</v>
       </c>
       <c r="C22">
-        <v>1.120419735914946</v>
+        <v>1.205282641436005</v>
       </c>
       <c r="D22">
-        <v>2.047404063327275</v>
+        <v>1.088696670384779</v>
       </c>
       <c r="E22">
-        <v>0.0461615722552053</v>
+        <v>0.04189064410354149</v>
       </c>
       <c r="F22">
-        <v>1.35564985498638</v>
+        <v>1.466208314956984</v>
       </c>
       <c r="G22">
-        <v>1146738.507999935</v>
+        <v>1676744.766152632</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.500649555169368</v>
+        <v>3.605656339155303</v>
       </c>
       <c r="C23">
-        <v>1.215226903863471</v>
+        <v>1.211054982744269</v>
       </c>
       <c r="D23">
-        <v>1.810657605845679</v>
+        <v>2.227249243251896</v>
       </c>
       <c r="E23">
-        <v>0.04983983110955449</v>
+        <v>0.03970310639972451</v>
       </c>
       <c r="F23">
-        <v>0.9003529923901937</v>
+        <v>1.328897819204477</v>
       </c>
       <c r="G23">
-        <v>1992250.473478125</v>
+        <v>1705096.747767561</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.059293620275268</v>
+        <v>4.297167856474086</v>
       </c>
       <c r="C24">
-        <v>0.963215183666259</v>
+        <v>1.171667800636897</v>
       </c>
       <c r="D24">
-        <v>1.378816713178623</v>
+        <v>1.191379864391959</v>
       </c>
       <c r="E24">
-        <v>0.03075684804590472</v>
+        <v>0.03276443969168459</v>
       </c>
       <c r="F24">
-        <v>1.050937790381872</v>
+        <v>1.240401396657823</v>
       </c>
       <c r="G24">
-        <v>1519170.618805646</v>
+        <v>1770477.847682192</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.25171509852751</v>
+        <v>2.94861298154203</v>
       </c>
       <c r="C25">
-        <v>1.180974961203237</v>
+        <v>1.217528915022064</v>
       </c>
       <c r="D25">
-        <v>1.339542473976448</v>
+        <v>2.29607798526981</v>
       </c>
       <c r="E25">
-        <v>0.05535242484626635</v>
+        <v>0.04240786507936757</v>
       </c>
       <c r="F25">
-        <v>1.41155810905999</v>
+        <v>1.288119730033272</v>
       </c>
       <c r="G25">
-        <v>825168.7611218942</v>
+        <v>1506912.945013471</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.370749737121216</v>
+        <v>3.903730429762814</v>
       </c>
       <c r="C26">
-        <v>1.009574326550841</v>
+        <v>1.196351362471006</v>
       </c>
       <c r="D26">
-        <v>1.692659495692669</v>
+        <v>1.228394781579424</v>
       </c>
       <c r="E26">
-        <v>0.03724949952996617</v>
+        <v>0.05352796340799425</v>
       </c>
       <c r="F26">
-        <v>1.084944281024337</v>
+        <v>1.446788251864515</v>
       </c>
       <c r="G26">
-        <v>1646552.460345084</v>
+        <v>1265343.146981362</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.644064424048106</v>
+        <v>4.407578122303711</v>
       </c>
       <c r="C27">
-        <v>1.130052279348183</v>
+        <v>1.036112851247192</v>
       </c>
       <c r="D27">
-        <v>2.99570058832894</v>
+        <v>2.836638544996887</v>
       </c>
       <c r="E27">
-        <v>0.05011586281240134</v>
+        <v>0.04156651150183942</v>
       </c>
       <c r="F27">
-        <v>1.405342804805054</v>
+        <v>0.9152628828764869</v>
       </c>
       <c r="G27">
-        <v>1023953.767749869</v>
+        <v>1961939.791446205</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.311014341333085</v>
+        <v>2.40252430814888</v>
       </c>
       <c r="C28">
-        <v>0.9664585056822987</v>
+        <v>1.106236582655338</v>
       </c>
       <c r="D28">
-        <v>1.01225671022009</v>
+        <v>1.678337469065705</v>
       </c>
       <c r="E28">
-        <v>0.05216159097878623</v>
+        <v>0.05727192809854051</v>
       </c>
       <c r="F28">
-        <v>1.396747301866547</v>
+        <v>1.343662955265742</v>
       </c>
       <c r="G28">
-        <v>1117511.802512435</v>
+        <v>881139.4189131728</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.619401534291259</v>
+        <v>2.45857536390817</v>
       </c>
       <c r="C29">
-        <v>1.029896288743657</v>
+        <v>1.001418305428786</v>
       </c>
       <c r="D29">
-        <v>2.0711238037338</v>
+        <v>2.48445872770756</v>
       </c>
       <c r="E29">
-        <v>0.03041364328372324</v>
+        <v>0.04463249616783077</v>
       </c>
       <c r="F29">
-        <v>0.9515794228610298</v>
+        <v>1.355991231599512</v>
       </c>
       <c r="G29">
-        <v>1955170.761516266</v>
+        <v>1096804.554161527</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.971512859030607</v>
+        <v>3.337117514003944</v>
       </c>
       <c r="C30">
-        <v>1.091941362731678</v>
+        <v>0.9908636749186248</v>
       </c>
       <c r="D30">
-        <v>1.626021852444767</v>
+        <v>1.835462965082494</v>
       </c>
       <c r="E30">
-        <v>0.04653126229250233</v>
+        <v>0.03154372607617188</v>
       </c>
       <c r="F30">
-        <v>1.128493459213032</v>
+        <v>1.085952405742275</v>
       </c>
       <c r="G30">
-        <v>983600.3310475135</v>
+        <v>1447043.237393185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.166466066094623</v>
+        <v>4.190452102598152</v>
       </c>
       <c r="C31">
-        <v>1.235064354740408</v>
+        <v>0.9381903307101391</v>
       </c>
       <c r="D31">
-        <v>1.720315104209115</v>
+        <v>2.693725227617102</v>
       </c>
       <c r="E31">
-        <v>0.05174665870233349</v>
+        <v>0.04349060647364157</v>
       </c>
       <c r="F31">
-        <v>1.307795715524202</v>
+        <v>1.430369033287082</v>
       </c>
       <c r="G31">
-        <v>1307626.921319124</v>
+        <v>1454277.23810646</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.733255922839463</v>
+        <v>4.03437786126568</v>
       </c>
       <c r="C32">
-        <v>0.9578078932324028</v>
+        <v>1.139870681462318</v>
       </c>
       <c r="D32">
-        <v>2.419292997360386</v>
+        <v>1.158142483495835</v>
       </c>
       <c r="E32">
-        <v>0.03239078700870175</v>
+        <v>0.0462463484582742</v>
       </c>
       <c r="F32">
-        <v>1.42692551697836</v>
+        <v>0.8651120068351946</v>
       </c>
       <c r="G32">
-        <v>1729452.775805027</v>
+        <v>1646274.227984419</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.040624838328505</v>
+        <v>2.108860880592226</v>
       </c>
       <c r="C33">
-        <v>1.042289725661016</v>
+        <v>0.9574945351399551</v>
       </c>
       <c r="D33">
-        <v>2.460902243951963</v>
+        <v>1.251937360772594</v>
       </c>
       <c r="E33">
-        <v>0.05674978453583665</v>
+        <v>0.04361570133483472</v>
       </c>
       <c r="F33">
-        <v>1.257676242026916</v>
+        <v>0.9125365843820351</v>
       </c>
       <c r="G33">
-        <v>1433694.384173211</v>
+        <v>947170.9381096227</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.844253584282679</v>
+        <v>1.979083869579785</v>
       </c>
       <c r="C34">
-        <v>0.9372742566830716</v>
+        <v>1.233744178207213</v>
       </c>
       <c r="D34">
-        <v>2.257957132068546</v>
+        <v>2.269271011250051</v>
       </c>
       <c r="E34">
-        <v>0.05273341512311179</v>
+        <v>0.03318102686726094</v>
       </c>
       <c r="F34">
-        <v>1.148428466194652</v>
+        <v>0.9442661685384892</v>
       </c>
       <c r="G34">
-        <v>1074532.158646523</v>
+        <v>1522742.679869845</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.762016574237212</v>
+        <v>4.210868856741458</v>
       </c>
       <c r="C35">
-        <v>0.9322906570149048</v>
+        <v>0.9762408716797508</v>
       </c>
       <c r="D35">
-        <v>1.497296724296651</v>
+        <v>1.614250302075404</v>
       </c>
       <c r="E35">
-        <v>0.05061447945381106</v>
+        <v>0.04870974644362426</v>
       </c>
       <c r="F35">
-        <v>1.238488000658841</v>
+        <v>1.13072734836175</v>
       </c>
       <c r="G35">
-        <v>691195.357150646</v>
+        <v>1385179.985824618</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.335966876412367</v>
+        <v>4.582427894989395</v>
       </c>
       <c r="C36">
-        <v>1.070616485922817</v>
+        <v>1.244964129398387</v>
       </c>
       <c r="D36">
-        <v>1.849335996312315</v>
+        <v>1.738534138601284</v>
       </c>
       <c r="E36">
-        <v>0.04736403663296519</v>
+        <v>0.04503581336082439</v>
       </c>
       <c r="F36">
-        <v>0.8749780004537189</v>
+        <v>1.265875314028337</v>
       </c>
       <c r="G36">
-        <v>1217748.684998684</v>
+        <v>1889372.444413007</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.456883433696165</v>
+        <v>3.124554753715007</v>
       </c>
       <c r="C37">
-        <v>1.141331412313904</v>
+        <v>0.9284098385190476</v>
       </c>
       <c r="D37">
-        <v>1.442169713548215</v>
+        <v>2.64528379652116</v>
       </c>
       <c r="E37">
-        <v>0.03165028947274651</v>
+        <v>0.04968392635212127</v>
       </c>
       <c r="F37">
-        <v>1.302719595358633</v>
+        <v>1.195010389707364</v>
       </c>
       <c r="G37">
-        <v>1248006.868050794</v>
+        <v>1206823.2937726</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.88719449929251</v>
+        <v>4.26545948184803</v>
       </c>
       <c r="C38">
-        <v>1.218449286819506</v>
+        <v>1.189673510164543</v>
       </c>
       <c r="D38">
-        <v>1.126827791368049</v>
+        <v>2.370034631753788</v>
       </c>
       <c r="E38">
-        <v>0.0574799562835466</v>
+        <v>0.04603500309109644</v>
       </c>
       <c r="F38">
-        <v>0.884428537268337</v>
+        <v>1.454323560640269</v>
       </c>
       <c r="G38">
-        <v>1569016.455837815</v>
+        <v>1734793.397237577</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.873583958733162</v>
+        <v>3.32705642603104</v>
       </c>
       <c r="C39">
-        <v>0.9520000822677183</v>
+        <v>1.088172038475523</v>
       </c>
       <c r="D39">
-        <v>2.810468639246441</v>
+        <v>1.268928487107181</v>
       </c>
       <c r="E39">
-        <v>0.04848116528481444</v>
+        <v>0.03899640584433769</v>
       </c>
       <c r="F39">
-        <v>1.326192495751502</v>
+        <v>0.9331896978533823</v>
       </c>
       <c r="G39">
-        <v>933397.6133333395</v>
+        <v>1442783.063515804</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.257220549908711</v>
+        <v>2.268310539486375</v>
       </c>
       <c r="C40">
-        <v>1.102614561883363</v>
+        <v>1.231598578916468</v>
       </c>
       <c r="D40">
-        <v>2.013362577068632</v>
+        <v>2.574933689928364</v>
       </c>
       <c r="E40">
-        <v>0.05353428769262962</v>
+        <v>0.04847190674234884</v>
       </c>
       <c r="F40">
-        <v>0.8035181975262429</v>
+        <v>1.173308987587939</v>
       </c>
       <c r="G40">
-        <v>1804468.390044844</v>
+        <v>1356181.860954445</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.031804531702185</v>
+        <v>3.686077327066677</v>
       </c>
       <c r="C41">
-        <v>1.018473676321769</v>
+        <v>1.040649416293234</v>
       </c>
       <c r="D41">
-        <v>2.908866039574815</v>
+        <v>2.552496480458393</v>
       </c>
       <c r="E41">
-        <v>0.04226997787218943</v>
+        <v>0.05624213956912667</v>
       </c>
       <c r="F41">
-        <v>1.005957800325374</v>
+        <v>1.496649094267806</v>
       </c>
       <c r="G41">
-        <v>1273202.571517764</v>
+        <v>1236730.6015101</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.999539901048045</v>
+        <v>3.567691745266245</v>
       </c>
       <c r="C42">
-        <v>1.04878085926537</v>
+        <v>0.9405584448900768</v>
       </c>
       <c r="D42">
-        <v>2.119733918575025</v>
+        <v>1.433295196628549</v>
       </c>
       <c r="E42">
-        <v>0.04707279207257386</v>
+        <v>0.05292837058010798</v>
       </c>
       <c r="F42">
-        <v>0.9858905355745873</v>
+        <v>1.01814986934649</v>
       </c>
       <c r="G42">
-        <v>1630265.706302023</v>
+        <v>1162060.632164011</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.43937564443371</v>
+        <v>2.221334112394497</v>
       </c>
       <c r="C43">
-        <v>0.9460865655338896</v>
+        <v>1.014398381660844</v>
       </c>
       <c r="D43">
-        <v>1.155547782376426</v>
+        <v>2.064699841690676</v>
       </c>
       <c r="E43">
-        <v>0.04439565506370501</v>
+        <v>0.04996182539617461</v>
       </c>
       <c r="F43">
-        <v>1.18876732041514</v>
+        <v>1.311943370967858</v>
       </c>
       <c r="G43">
-        <v>1100412.785966779</v>
+        <v>931157.5164256962</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.123371980166712</v>
+        <v>4.834433669499697</v>
       </c>
       <c r="C44">
-        <v>1.228037640000718</v>
+        <v>1.238594021250301</v>
       </c>
       <c r="D44">
-        <v>1.860316632860169</v>
+        <v>1.55842776877877</v>
       </c>
       <c r="E44">
-        <v>0.05627215104299932</v>
+        <v>0.03177089668255142</v>
       </c>
       <c r="F44">
-        <v>0.8668809956920807</v>
+        <v>0.9889677038198265</v>
       </c>
       <c r="G44">
-        <v>1245769.325223229</v>
+        <v>2259605.551627779</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.638253343186379</v>
+        <v>4.438285409533815</v>
       </c>
       <c r="C45">
-        <v>0.9893461169115711</v>
+        <v>1.158197266746514</v>
       </c>
       <c r="D45">
-        <v>1.755381915956042</v>
+        <v>2.443212895998401</v>
       </c>
       <c r="E45">
-        <v>0.05291087621872557</v>
+        <v>0.0335272173565082</v>
       </c>
       <c r="F45">
-        <v>1.284980164456178</v>
+        <v>1.378461185600488</v>
       </c>
       <c r="G45">
-        <v>1408362.457824473</v>
+        <v>2008033.235176658</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.57410113350492</v>
+        <v>3.438300905449917</v>
       </c>
       <c r="C46">
-        <v>1.191045533197365</v>
+        <v>1.125945499668602</v>
       </c>
       <c r="D46">
-        <v>1.293649773198753</v>
+        <v>2.174976008277115</v>
       </c>
       <c r="E46">
-        <v>0.03644647362174848</v>
+        <v>0.03711223414836921</v>
       </c>
       <c r="F46">
-        <v>1.180381968719051</v>
+        <v>0.9992736177372968</v>
       </c>
       <c r="G46">
-        <v>1877829.703099305</v>
+        <v>1713313.116648363</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.677088067535332</v>
+        <v>1.623394561996583</v>
       </c>
       <c r="C47">
-        <v>1.059311441240434</v>
+        <v>1.216453094033216</v>
       </c>
       <c r="D47">
-        <v>1.312439693384599</v>
+        <v>1.453096903184522</v>
       </c>
       <c r="E47">
-        <v>0.04274674505303891</v>
+        <v>0.02953550096816956</v>
       </c>
       <c r="F47">
-        <v>1.152415848873015</v>
+        <v>0.8252302185157104</v>
       </c>
       <c r="G47">
-        <v>855884.4148393187</v>
+        <v>1299155.453590221</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.527834214812758</v>
+        <v>2.043124368396088</v>
       </c>
       <c r="C48">
-        <v>1.194001526791989</v>
+        <v>1.116887625006035</v>
       </c>
       <c r="D48">
-        <v>1.422575640520945</v>
+        <v>1.669572070647937</v>
       </c>
       <c r="E48">
-        <v>0.05402340120090275</v>
+        <v>0.04682875936885984</v>
       </c>
       <c r="F48">
-        <v>1.025295526602647</v>
+        <v>1.048342195370545</v>
       </c>
       <c r="G48">
-        <v>1443122.025422416</v>
+        <v>1069793.35577304</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.952028258413535</v>
+        <v>3.946453029814113</v>
       </c>
       <c r="C49">
-        <v>1.026799315036749</v>
+        <v>1.080360887965434</v>
       </c>
       <c r="D49">
-        <v>2.830303488164351</v>
+        <v>2.384376250671091</v>
       </c>
       <c r="E49">
-        <v>0.05585230290044173</v>
+        <v>0.05438533192674066</v>
       </c>
       <c r="F49">
-        <v>1.111494591835529</v>
+        <v>1.097875102105172</v>
       </c>
       <c r="G49">
-        <v>1299184.906829394</v>
+        <v>1570109.726085575</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.575863991287029</v>
+        <v>1.921105705549017</v>
       </c>
       <c r="C50">
-        <v>1.05445157541059</v>
+        <v>1.223637394344752</v>
       </c>
       <c r="D50">
-        <v>1.213187541507658</v>
+        <v>2.345755654666746</v>
       </c>
       <c r="E50">
-        <v>0.03408033406815558</v>
+        <v>0.03498801992806579</v>
       </c>
       <c r="F50">
-        <v>1.136199329394766</v>
+        <v>1.402877592626281</v>
       </c>
       <c r="G50">
-        <v>1426512.179939743</v>
+        <v>1286842.352968268</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.462392966454727</v>
+        <v>3.761254835683477</v>
       </c>
       <c r="C51">
-        <v>1.187913796326968</v>
+        <v>0.9963362281130946</v>
       </c>
       <c r="D51">
-        <v>2.912808725356275</v>
+        <v>2.811791739804002</v>
       </c>
       <c r="E51">
-        <v>0.05086687470250748</v>
+        <v>0.03858713785508158</v>
       </c>
       <c r="F51">
-        <v>1.472663030220279</v>
+        <v>0.873038545821433</v>
       </c>
       <c r="G51">
-        <v>1822687.446726287</v>
+        <v>1761816.499903036</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.194181967030704</v>
+        <v>2.500732474140147</v>
       </c>
       <c r="C52">
-        <v>1.247723405224325</v>
+        <v>1.049860466173314</v>
       </c>
       <c r="D52">
-        <v>2.203513575147813</v>
+        <v>2.235680867520172</v>
       </c>
       <c r="E52">
-        <v>0.03987934093836154</v>
+        <v>0.05384008252671772</v>
       </c>
       <c r="F52">
-        <v>1.108654995190439</v>
+        <v>1.371117459920188</v>
       </c>
       <c r="G52">
-        <v>1422995.52470157</v>
+        <v>987640.2001766766</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.695091840288736</v>
+        <v>2.607036385523703</v>
       </c>
       <c r="C53">
-        <v>1.001821091159663</v>
+        <v>1.166038834553339</v>
       </c>
       <c r="D53">
-        <v>2.550595954481828</v>
+        <v>1.769587820279863</v>
       </c>
       <c r="E53">
-        <v>0.03494328242613531</v>
+        <v>0.04412815517502688</v>
       </c>
       <c r="F53">
-        <v>1.271361219554886</v>
+        <v>0.8924868023267827</v>
       </c>
       <c r="G53">
-        <v>1584856.906156631</v>
+        <v>1411257.56347361</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.710721394767591</v>
+        <v>2.622367117044075</v>
       </c>
       <c r="C54">
-        <v>1.21179146287601</v>
+        <v>1.255278978088274</v>
       </c>
       <c r="D54">
-        <v>2.699970242348222</v>
+        <v>1.567359124158157</v>
       </c>
       <c r="E54">
-        <v>0.05494564106213298</v>
+        <v>0.04768285948254294</v>
       </c>
       <c r="F54">
-        <v>1.362604374929071</v>
+        <v>1.351711004595189</v>
       </c>
       <c r="G54">
-        <v>1886162.233801104</v>
+        <v>1170682.500981776</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.132954338543872</v>
+        <v>4.068849753933972</v>
       </c>
       <c r="C55">
-        <v>1.014633793548948</v>
+        <v>1.084799470150502</v>
       </c>
       <c r="D55">
-        <v>2.151245678692693</v>
+        <v>2.009232110710934</v>
       </c>
       <c r="E55">
-        <v>0.04392763854117381</v>
+        <v>0.0360017071881579</v>
       </c>
       <c r="F55">
-        <v>1.221411849048556</v>
+        <v>0.854154238707061</v>
       </c>
       <c r="G55">
-        <v>1540355.113933018</v>
+        <v>1867720.573415942</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.68739199635792</v>
+        <v>1.698783035338123</v>
       </c>
       <c r="C56">
-        <v>0.9969918103265963</v>
+        <v>0.9684725345647046</v>
       </c>
       <c r="D56">
-        <v>1.998107613430384</v>
+        <v>2.721797006700182</v>
       </c>
       <c r="E56">
-        <v>0.03675373118177831</v>
+        <v>0.03824414008336829</v>
       </c>
       <c r="F56">
-        <v>1.033409498693259</v>
+        <v>1.263148770474205</v>
       </c>
       <c r="G56">
-        <v>1284220.949491765</v>
+        <v>1041005.091748398</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.049026988238835</v>
+        <v>2.369473697103986</v>
       </c>
       <c r="C57">
-        <v>1.144649744783996</v>
+        <v>0.9857915123165724</v>
       </c>
       <c r="D57">
-        <v>1.049988621874415</v>
+        <v>1.634559499132611</v>
       </c>
       <c r="E57">
-        <v>0.04588307159244813</v>
+        <v>0.0407027096037425</v>
       </c>
       <c r="F57">
-        <v>1.492509876200875</v>
+        <v>1.219418538339422</v>
       </c>
       <c r="G57">
-        <v>781265.3207580097</v>
+        <v>1009205.581149547</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.313908198060815</v>
+        <v>4.639379092327564</v>
       </c>
       <c r="C58">
-        <v>1.200023917095915</v>
+        <v>1.101886206088981</v>
       </c>
       <c r="D58">
-        <v>2.949489647361067</v>
+        <v>2.783843328412489</v>
       </c>
       <c r="E58">
-        <v>0.03923888091433556</v>
+        <v>0.04012755449753867</v>
       </c>
       <c r="F58">
-        <v>0.9642677678276688</v>
+        <v>0.8484300933209912</v>
       </c>
       <c r="G58">
-        <v>1960394.179756903</v>
+        <v>2190998.18472543</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.80935298218968</v>
+        <v>3.809401564394395</v>
       </c>
       <c r="C59">
-        <v>1.037464988119844</v>
+        <v>1.200421277165679</v>
       </c>
       <c r="D59">
-        <v>2.361835765890333</v>
+        <v>2.935700022536964</v>
       </c>
       <c r="E59">
-        <v>0.05422472324365937</v>
+        <v>0.03018741429013793</v>
       </c>
       <c r="F59">
-        <v>1.340875292002008</v>
+        <v>1.477904477204052</v>
       </c>
       <c r="G59">
-        <v>845479.192741883</v>
+        <v>2023216.490355548</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.653293496104795</v>
+        <v>3.976327981097125</v>
       </c>
       <c r="C60">
-        <v>1.204861077706035</v>
+        <v>1.13025278417374</v>
       </c>
       <c r="D60">
-        <v>1.196711739206714</v>
+        <v>1.132848323499478</v>
       </c>
       <c r="E60">
-        <v>0.03305260444451753</v>
+        <v>0.05779469583045554</v>
       </c>
       <c r="F60">
-        <v>0.9828750926764399</v>
+        <v>0.8202537120016795</v>
       </c>
       <c r="G60">
-        <v>1730422.574969526</v>
+        <v>1521910.038152671</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.162530596666389</v>
+        <v>3.486228168164396</v>
       </c>
       <c r="C61">
-        <v>1.155501716027773</v>
+        <v>0.9523430084234203</v>
       </c>
       <c r="D61">
-        <v>2.483859480184099</v>
+        <v>1.964259760770133</v>
       </c>
       <c r="E61">
-        <v>0.02997165133537187</v>
+        <v>0.0309412448068925</v>
       </c>
       <c r="F61">
-        <v>1.223789056589577</v>
+        <v>1.425390390137156</v>
       </c>
       <c r="G61">
-        <v>2050484.216222336</v>
+        <v>1349936.422140968</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.802979633489618</v>
+        <v>3.240093373286914</v>
       </c>
       <c r="C62">
-        <v>1.169803176269184</v>
+        <v>1.062159034214961</v>
       </c>
       <c r="D62">
-        <v>2.762927893789449</v>
+        <v>2.877333381635617</v>
       </c>
       <c r="E62">
-        <v>0.04360420148384984</v>
+        <v>0.05049730083014967</v>
       </c>
       <c r="F62">
-        <v>1.09462924542489</v>
+        <v>1.321351180579527</v>
       </c>
       <c r="G62">
-        <v>1591764.220092603</v>
+        <v>1380981.97437511</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.746607114188048</v>
+        <v>2.74408910030546</v>
       </c>
       <c r="C63">
-        <v>1.25195031159778</v>
+        <v>0.9488779081762566</v>
       </c>
       <c r="D63">
-        <v>1.574699237576604</v>
+        <v>1.017905268873666</v>
       </c>
       <c r="E63">
-        <v>0.03835549822397843</v>
+        <v>0.05191215735603139</v>
       </c>
       <c r="F63">
-        <v>1.24974202920762</v>
+        <v>1.116819309021227</v>
       </c>
       <c r="G63">
-        <v>1402986.126363388</v>
+        <v>874890.1865680672</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.585346128822402</v>
+        <v>2.790621099141431</v>
       </c>
       <c r="C64">
-        <v>1.240358260614295</v>
+        <v>0.979400311656876</v>
       </c>
       <c r="D64">
-        <v>2.294825095917242</v>
+        <v>1.356530981733282</v>
       </c>
       <c r="E64">
-        <v>0.04790311963353153</v>
+        <v>0.03929453613982174</v>
       </c>
       <c r="F64">
-        <v>0.8170960054619124</v>
+        <v>1.155079151871024</v>
       </c>
       <c r="G64">
-        <v>1620915.942798696</v>
+        <v>1093532.276913981</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.344759230364742</v>
+        <v>1.730028720157882</v>
       </c>
       <c r="C65">
-        <v>1.153381658619817</v>
+        <v>0.9607625746354114</v>
       </c>
       <c r="D65">
-        <v>2.872410045331689</v>
+        <v>1.896689551765331</v>
       </c>
       <c r="E65">
-        <v>0.04021201387811063</v>
+        <v>0.03556632433613975</v>
       </c>
       <c r="F65">
-        <v>1.315232837217424</v>
+        <v>1.487559193224152</v>
       </c>
       <c r="G65">
-        <v>1690112.923780148</v>
+        <v>854052.1686327523</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.429732230036127</v>
+        <v>2.978493930378778</v>
       </c>
       <c r="C66">
-        <v>1.161341695234366</v>
+        <v>1.114328144105109</v>
       </c>
       <c r="D66">
-        <v>1.383717234364456</v>
+        <v>2.189918347372878</v>
       </c>
       <c r="E66">
-        <v>0.04879765161783013</v>
+        <v>0.05285785819591626</v>
       </c>
       <c r="F66">
-        <v>0.8610619092476313</v>
+        <v>0.8382381739677569</v>
       </c>
       <c r="G66">
-        <v>1240454.11217459</v>
+        <v>1482951.280179845</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.828078751566201</v>
+        <v>3.010733523926845</v>
       </c>
       <c r="C67">
-        <v>1.089452544159286</v>
+        <v>1.162644805841247</v>
       </c>
       <c r="D67">
-        <v>2.636035987881212</v>
+        <v>1.050293388808788</v>
       </c>
       <c r="E67">
-        <v>0.0406329034166889</v>
+        <v>0.05157113735634128</v>
       </c>
       <c r="F67">
-        <v>1.381473772923527</v>
+        <v>1.392988176728579</v>
       </c>
       <c r="G67">
-        <v>1924412.134361783</v>
+        <v>1008386.78221233</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.217484247276242</v>
+        <v>3.626108313938992</v>
       </c>
       <c r="C68">
-        <v>1.106984470876626</v>
+        <v>1.044753421976797</v>
       </c>
       <c r="D68">
-        <v>1.613511819025237</v>
+        <v>1.503270823317611</v>
       </c>
       <c r="E68">
-        <v>0.0576980444767078</v>
+        <v>0.04527980123194052</v>
       </c>
       <c r="F68">
-        <v>0.937394240832756</v>
+        <v>1.14190848157922</v>
       </c>
       <c r="G68">
-        <v>1307622.667831001</v>
+        <v>1342822.9280572</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.066565554364872</v>
+        <v>2.817033049629309</v>
       </c>
       <c r="C69">
-        <v>1.079007116603098</v>
+        <v>1.030673570017911</v>
       </c>
       <c r="D69">
-        <v>2.510175361233542</v>
+        <v>2.947794235703176</v>
       </c>
       <c r="E69">
-        <v>0.04191388266059839</v>
+        <v>0.05211333468185501</v>
       </c>
       <c r="F69">
-        <v>1.482288140057562</v>
+        <v>1.20192569532214</v>
       </c>
       <c r="G69">
-        <v>1330128.82631816</v>
+        <v>1286879.494254944</v>
       </c>
     </row>
   </sheetData>
